--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.635872655757</v>
+        <v>46.926932</v>
       </c>
       <c r="H2">
-        <v>43.635872655757</v>
+        <v>140.780796</v>
       </c>
       <c r="I2">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="J2">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.2716589697</v>
+        <v>20.7608</v>
       </c>
       <c r="N2">
-        <v>19.2716589697</v>
+        <v>62.2824</v>
       </c>
       <c r="O2">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="P2">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="Q2">
-        <v>840.9356566670062</v>
+        <v>974.2406498655999</v>
       </c>
       <c r="R2">
-        <v>840.9356566670062</v>
+        <v>8768.165848790401</v>
       </c>
       <c r="S2">
-        <v>0.1307284391249924</v>
+        <v>0.1385476376163724</v>
       </c>
       <c r="T2">
-        <v>0.1307284391249924</v>
+        <v>0.1385476376163724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.635872655757</v>
+        <v>46.926932</v>
       </c>
       <c r="H3">
-        <v>43.635872655757</v>
+        <v>140.780796</v>
       </c>
       <c r="I3">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="J3">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9800422208858</v>
+        <v>23.032996</v>
       </c>
       <c r="N3">
-        <v>22.9800422208858</v>
+        <v>69.09898799999999</v>
       </c>
       <c r="O3">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="P3">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="Q3">
-        <v>1002.754195974492</v>
+        <v>1080.867837048272</v>
       </c>
       <c r="R3">
-        <v>1002.754195974492</v>
+        <v>9727.810533434447</v>
       </c>
       <c r="S3">
-        <v>0.1558840915193712</v>
+        <v>0.1537111856492695</v>
       </c>
       <c r="T3">
-        <v>0.1558840915193712</v>
+        <v>0.1537111856492695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.635872655757</v>
+        <v>46.926932</v>
       </c>
       <c r="H4">
-        <v>43.635872655757</v>
+        <v>140.780796</v>
       </c>
       <c r="I4">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="J4">
-        <v>0.3872085033580819</v>
+        <v>0.3970508522302297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.8296062650181</v>
+        <v>15.70265933333333</v>
       </c>
       <c r="N4">
-        <v>14.8296062650181</v>
+        <v>47.107978</v>
       </c>
       <c r="O4">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="P4">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="Q4">
-        <v>647.1028105153459</v>
+        <v>736.8776267544988</v>
       </c>
       <c r="R4">
-        <v>647.1028105153459</v>
+        <v>6631.898640790489</v>
       </c>
       <c r="S4">
-        <v>0.1005959727137183</v>
+        <v>0.1047920289645878</v>
       </c>
       <c r="T4">
-        <v>0.1005959727137183</v>
+        <v>0.1047920289645878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.1861817908764</v>
+        <v>30.21862233333333</v>
       </c>
       <c r="H5">
-        <v>30.1861817908764</v>
+        <v>90.655867</v>
       </c>
       <c r="I5">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="J5">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.2716589697</v>
+        <v>20.7608</v>
       </c>
       <c r="N5">
-        <v>19.2716589697</v>
+        <v>62.2824</v>
       </c>
       <c r="O5">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="P5">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="Q5">
-        <v>581.7378010711379</v>
+        <v>627.3627745378666</v>
       </c>
       <c r="R5">
-        <v>581.7378010711379</v>
+        <v>5646.2649708408</v>
       </c>
       <c r="S5">
-        <v>0.09043459402762533</v>
+        <v>0.08921782349429287</v>
       </c>
       <c r="T5">
-        <v>0.09043459402762533</v>
+        <v>0.08921782349429287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.1861817908764</v>
+        <v>30.21862233333333</v>
       </c>
       <c r="H6">
-        <v>30.1861817908764</v>
+        <v>90.655867</v>
       </c>
       <c r="I6">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="J6">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.9800422208858</v>
+        <v>23.032996</v>
       </c>
       <c r="N6">
-        <v>22.9800422208858</v>
+        <v>69.09898799999999</v>
       </c>
       <c r="O6">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="P6">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="Q6">
-        <v>693.6797320416738</v>
+        <v>696.0254073291773</v>
       </c>
       <c r="R6">
-        <v>693.6797320416738</v>
+        <v>6264.228665962595</v>
       </c>
       <c r="S6">
-        <v>0.1078366316180121</v>
+        <v>0.09898239815771807</v>
       </c>
       <c r="T6">
-        <v>0.1078366316180121</v>
+        <v>0.09898239815771809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.1861817908764</v>
+        <v>30.21862233333333</v>
       </c>
       <c r="H7">
-        <v>30.1861817908764</v>
+        <v>90.655867</v>
       </c>
       <c r="I7">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="J7">
-        <v>0.2678609493053913</v>
+        <v>0.2556811033517694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8296062650181</v>
+        <v>15.70265933333333</v>
       </c>
       <c r="N7">
-        <v>14.8296062650181</v>
+        <v>47.107978</v>
       </c>
       <c r="O7">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="P7">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="Q7">
-        <v>447.649190602956</v>
+        <v>474.5127320229918</v>
       </c>
       <c r="R7">
-        <v>447.649190602956</v>
+        <v>4270.614588206926</v>
       </c>
       <c r="S7">
-        <v>0.06958972365975392</v>
+        <v>0.0674808816997584</v>
       </c>
       <c r="T7">
-        <v>0.06958972365975392</v>
+        <v>0.0674808816997584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.8714227815862</v>
+        <v>41.04316566666667</v>
       </c>
       <c r="H8">
-        <v>38.8714227815862</v>
+        <v>123.129497</v>
       </c>
       <c r="I8">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="J8">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.2716589697</v>
+        <v>20.7608</v>
       </c>
       <c r="N8">
-        <v>19.2716589697</v>
+        <v>62.2824</v>
       </c>
       <c r="O8">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="P8">
-        <v>0.3376176865725948</v>
+        <v>0.3489417963420857</v>
       </c>
       <c r="Q8">
-        <v>749.1168035137565</v>
+        <v>852.0889537725335</v>
       </c>
       <c r="R8">
-        <v>749.1168035137565</v>
+        <v>7668.8005839528</v>
       </c>
       <c r="S8">
-        <v>0.1164546534199771</v>
+        <v>0.1211763352314204</v>
       </c>
       <c r="T8">
-        <v>0.1164546534199771</v>
+        <v>0.1211763352314204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.8714227815862</v>
+        <v>41.04316566666667</v>
       </c>
       <c r="H9">
-        <v>38.8714227815862</v>
+        <v>123.129497</v>
       </c>
       <c r="I9">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="J9">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.9800422208858</v>
+        <v>23.032996</v>
       </c>
       <c r="N9">
-        <v>22.9800422208858</v>
+        <v>69.09898799999999</v>
       </c>
       <c r="O9">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="P9">
-        <v>0.4025843703520452</v>
+        <v>0.3871322395755498</v>
       </c>
       <c r="Q9">
-        <v>893.266936706753</v>
+        <v>945.3470706276707</v>
       </c>
       <c r="R9">
-        <v>893.266936706753</v>
+        <v>8508.123635649035</v>
       </c>
       <c r="S9">
-        <v>0.1388636472146619</v>
+        <v>0.1344386557685622</v>
       </c>
       <c r="T9">
-        <v>0.1388636472146619</v>
+        <v>0.1344386557685622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.8714227815862</v>
+        <v>41.04316566666667</v>
       </c>
       <c r="H10">
-        <v>38.8714227815862</v>
+        <v>123.129497</v>
       </c>
       <c r="I10">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="J10">
-        <v>0.3449305473365267</v>
+        <v>0.3472680444180009</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.8296062650181</v>
+        <v>15.70265933333333</v>
       </c>
       <c r="N10">
-        <v>14.8296062650181</v>
+        <v>47.107978</v>
       </c>
       <c r="O10">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="P10">
-        <v>0.2597979430753599</v>
+        <v>0.2639259640823645</v>
       </c>
       <c r="Q10">
-        <v>576.447894811978</v>
+        <v>644.4868484252297</v>
       </c>
       <c r="R10">
-        <v>576.447894811978</v>
+        <v>5800.381635827067</v>
       </c>
       <c r="S10">
-        <v>0.08961224670188771</v>
+        <v>0.09165305341801824</v>
       </c>
       <c r="T10">
-        <v>0.08961224670188771</v>
+        <v>0.09165305341801824</v>
       </c>
     </row>
   </sheetData>
